--- a/Project_TS_Log.xlsx
+++ b/Project_TS_Log.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\FlutterProjects\GitHUBRepos\WhatsApp-Clone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6C7D36D-4766-4447-90E1-374BAF021D95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FBFAC49-4042-4B6E-87A2-CAF9E821BADD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2700" yWindow="2850" windowWidth="19200" windowHeight="10510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Day</t>
   </si>
@@ -55,6 +55,12 @@
   </si>
   <si>
     <t>Added SHA - 1 fingerprint on firebase console. Created OTP Screen and added OTP business logic and verification WORKS! Added route, modified auth repo and controller.</t>
+  </si>
+  <si>
+    <t>Added ImagePicker, Created FBSRepo, wrote a method in AuthRepo, setup firestore methods, created UserModel and UserInfoScreen and created sendingToDB methods.</t>
+  </si>
+  <si>
+    <t>Added persistent auth, created github content, added loaders, debugged app, started working on contacts.</t>
   </si>
 </sst>
 </file>
@@ -389,10 +395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -502,7 +508,32 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="2"/>
+      <c r="A8" s="2">
+        <v>45190</v>
+      </c>
+      <c r="B8" s="3">
+        <v>105</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="2">
+        <v>45191</v>
+      </c>
+      <c r="B9" s="3">
+        <v>168</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Project_TS_Log.xlsx
+++ b/Project_TS_Log.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\FlutterProjects\GitHUBRepos\WhatsApp-Clone\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\FlutterProjects\whatsapp_clone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FBFAC49-4042-4B6E-87A2-CAF9E821BADD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C559D26-C894-4554-9810-B081DECBC56F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2700" yWindow="2850" windowWidth="19200" windowHeight="10510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -398,7 +398,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:D9"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Project_TS_Log.xlsx
+++ b/Project_TS_Log.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\FlutterProjects\whatsapp_clone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C559D26-C894-4554-9810-B081DECBC56F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4E6E1EE-55C7-475C-86DC-A1B6A8B1DEC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2700" yWindow="2850" windowWidth="19200" windowHeight="10510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Day</t>
   </si>
@@ -61,6 +61,18 @@
   </si>
   <si>
     <t>Added persistent auth, created github content, added loaders, debugged app, started working on contacts.</t>
+  </si>
+  <si>
+    <t>Added contacts screen, binded and added route, created provider and controller for selecting contacts.</t>
+  </si>
+  <si>
+    <t>Added selectContact() method, onTap() functionality to the contact list, singeChildScroolView on login screen.</t>
+  </si>
+  <si>
+    <t>Did some real phone testing, added navigator argument functionality, updated router.dart and added dynamic name generation from contact list</t>
+  </si>
+  <si>
+    <t>Added online/offline status using streambuilder, modified chat text field on chat screen, created BottomChatField stateful widget and debugged app. &lt;Note&gt; Name broken if chat accessed from main chat screen</t>
   </si>
 </sst>
 </file>
@@ -108,13 +120,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -395,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -535,6 +556,62 @@
         <v>1</v>
       </c>
     </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="2">
+        <v>45192</v>
+      </c>
+      <c r="B10" s="3">
+        <v>82</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="2">
+        <v>45195</v>
+      </c>
+      <c r="B11" s="3">
+        <v>35</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="2">
+        <v>45195</v>
+      </c>
+      <c r="B12" s="3">
+        <v>38</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="6">
+        <v>45196</v>
+      </c>
+      <c r="B13" s="5">
+        <v>83</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="5">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Project_TS_Log.xlsx
+++ b/Project_TS_Log.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\FlutterProjects\whatsapp_clone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4E6E1EE-55C7-475C-86DC-A1B6A8B1DEC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D4B15DA-8A1C-45D8-8491-06429FC4A60C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2700" yWindow="2850" windowWidth="19200" windowHeight="10510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Day</t>
   </si>
@@ -73,6 +73,18 @@
   </si>
   <si>
     <t>Added online/offline status using streambuilder, modified chat text field on chat screen, created BottomChatField stateful widget and debugged app. &lt;Note&gt; Name broken if chat accessed from main chat screen</t>
+  </si>
+  <si>
+    <t>Message sending feature added from backend side along with last seen functionality.</t>
+  </si>
+  <si>
+    <t>Tediously long process of using stream builders for chat screen and contact page. Not Debugged properly</t>
+  </si>
+  <si>
+    <t>Debugged everything (issue was that contactId was being passed phoneNumber) and got the app working with real time chatting functionality</t>
+  </si>
+  <si>
+    <t>Added online/offline status using WidgetsBindingObserver. Added cases for didChangeAppLifecycleState, added initState and dispose in MobileScreenLayout.</t>
   </si>
 </sst>
 </file>
@@ -416,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -612,6 +624,65 @@
         <v>1</v>
       </c>
     </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="6">
+        <v>45196</v>
+      </c>
+      <c r="B14" s="3">
+        <v>112</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="6">
+        <v>45197</v>
+      </c>
+      <c r="B15" s="3">
+        <v>78</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="6">
+        <v>45197</v>
+      </c>
+      <c r="B16" s="3">
+        <v>81</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="6">
+        <v>45197</v>
+      </c>
+      <c r="B17" s="3">
+        <v>23</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="6"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Project_TS_Log.xlsx
+++ b/Project_TS_Log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\FlutterProjects\whatsapp_clone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D4B15DA-8A1C-45D8-8491-06429FC4A60C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B93A7F7B-CAB3-4860-AE3E-0E7FC05A6496}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2700" yWindow="2850" windowWidth="19200" windowHeight="10510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Day</t>
   </si>
@@ -85,6 +85,12 @@
   </si>
   <si>
     <t>Added online/offline status using WidgetsBindingObserver. Added cases for didChangeAppLifecycleState, added initState and dispose in MobileScreenLayout.</t>
+  </si>
+  <si>
+    <t>Added sendFileMessage() in chat repo/controller, linked camera icon with the function in bottom chat field, modified message cards for sender and receiver, created a separate widget, adjusted myMessage card.</t>
+  </si>
+  <si>
+    <t>Added Video Player Widget, converted display message acc to type if else block to switch, added pickVideoGallery global utils function, added emoji keyboard and binded functions to bottom chat field widget, added FocusNode to keep track of keyboards, added GIF SDK version from GIPHY using enough_giphy_flutter, added function in bottom_chat_field and chat repository, formatted input in chat controller for handling gifs, changed dependency in pubspec.yaml for flutter_sound and uuid compatibility, added permission_handler, created dispose for futterSoundRecorder, added logic in sendTextMessage() to handle audio and added openAudio() function</t>
   </si>
 </sst>
 </file>
@@ -428,10 +434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -680,8 +686,33 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="6"/>
+    <row r="18" spans="1:4" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="6">
+        <v>45200</v>
+      </c>
+      <c r="B18" s="3">
+        <v>81</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="6">
+        <v>45201</v>
+      </c>
+      <c r="B19" s="3">
+        <v>174</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="3">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Project_TS_Log.xlsx
+++ b/Project_TS_Log.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\FlutterProjects\whatsapp_clone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B93A7F7B-CAB3-4860-AE3E-0E7FC05A6496}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32EC224E-B41D-47C2-B295-2DDB092AE837}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2700" yWindow="2850" windowWidth="19200" windowHeight="10510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4940" yWindow="2370" windowWidth="19200" windowHeight="10510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Day</t>
   </si>
@@ -91,6 +91,18 @@
   </si>
   <si>
     <t>Added Video Player Widget, converted display message acc to type if else block to switch, added pickVideoGallery global utils function, added emoji keyboard and binded functions to bottom chat field widget, added FocusNode to keep track of keyboards, added GIF SDK version from GIPHY using enough_giphy_flutter, added function in bottom_chat_field and chat repository, formatted input in chat controller for handling gifs, changed dependency in pubspec.yaml for flutter_sound and uuid compatibility, added permission_handler, created dispose for futterSoundRecorder, added logic in sendTextMessage() to handle audio and added openAudio() function</t>
+  </si>
+  <si>
+    <t>Added a global common provider messageReplyProvider, created message_reply_preview widget, modified myMessafe, modified chat repo functions for messageReply, modified Message class for messageReply, modified chat_list for messageReply, modified bottom chat field widget slightly to accomodate reply feature</t>
+  </si>
+  <si>
+    <t>Finished reply feature (Changed Firestore structure a bit after debugging), added Seen feature and debugged the app.</t>
+  </si>
+  <si>
+    <t>Created statusRepository, status class, tabBarView for status, updated router.dart, created confirmStatusScreen, created statusContactScreen and started work on repository</t>
+  </si>
+  <si>
+    <t>Finished uploadStatus function in statusRepo, created controller for statusRepo and binded functions, finished confirmStatusScreen and finished first part of statuses, debug issue was in model part where JSON serialization was done incorrectly (human error), built index on firebase, finished status contact screen, finished getStatus() in status repo, added statusScreen, added StoryView and finished Status feature.</t>
   </si>
 </sst>
 </file>
@@ -138,7 +150,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -152,6 +164,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -434,10 +452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -686,31 +704,87 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" s="8" customFormat="1" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="6">
         <v>45200</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="5">
         <v>81</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D18" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" s="8" customFormat="1" ht="44.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="6">
         <v>45201</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="5">
         <v>174</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="2">
+        <v>45203</v>
+      </c>
+      <c r="B20" s="3">
+        <v>54</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="2">
+        <v>45203</v>
+      </c>
+      <c r="B21" s="3">
+        <v>83</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" s="2">
+        <v>45204</v>
+      </c>
+      <c r="B22" s="3">
+        <v>63</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="6">
+        <v>45204</v>
+      </c>
+      <c r="B23" s="5">
+        <v>73</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="5">
         <v>2</v>
       </c>
     </row>

--- a/Project_TS_Log.xlsx
+++ b/Project_TS_Log.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\FlutterProjects\whatsapp_clone\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\FlutterProjects\GitHUBRepos\WhatsApp-Clone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32EC224E-B41D-47C2-B295-2DDB092AE837}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A3CB0B5-61B5-4303-8D72-778DFFD05F90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4940" yWindow="2370" windowWidth="19200" windowHeight="10510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3490" yWindow="1800" windowWidth="19200" windowHeight="10510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Day</t>
   </si>
@@ -103,6 +103,12 @@
   </si>
   <si>
     <t>Finished uploadStatus function in statusRepo, created controller for statusRepo and binded functions, finished confirmStatusScreen and finished first part of statuses, debug issue was in model part where JSON serialization was done incorrectly (human error), built index on firebase, finished status contact screen, finished getStatus() in status repo, added statusScreen, added StoryView and finished Status feature.</t>
+  </si>
+  <si>
+    <t>Added createGroupScreen and selectContact widget for the same, created a state notifier for selected contact which can be updated and read globally, created a group model, created group repo, created create Group function, added new logic for selectContact, finished backend work.</t>
+  </si>
+  <si>
+    <t>Added a stream builder for displaying groups, added functions for the same in chat repo, added isGroupChat check and modified dependencies (files), modified chat repo to get stream of group chat messages, added a ternary expression determining provider for stream of messages based on isGroupChat in chat list, a LOT of modifications to accomodate sending messages to chat repo (all sub functions modified as well), controller functions modified for isGroupChat functionality and debugged the app.</t>
   </si>
 </sst>
 </file>
@@ -150,7 +156,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -171,6 +177,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -452,10 +461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -788,6 +797,37 @@
         <v>2</v>
       </c>
     </row>
+    <row r="24" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="9">
+        <v>45206</v>
+      </c>
+      <c r="B24" s="4">
+        <v>117</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="9">
+        <v>45207</v>
+      </c>
+      <c r="B25" s="4">
+        <v>123</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" s="9"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Project_TS_Log.xlsx
+++ b/Project_TS_Log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\FlutterProjects\GitHUBRepos\WhatsApp-Clone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A3CB0B5-61B5-4303-8D72-778DFFD05F90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92FAD8BA-42FA-44FA-9FC0-DC411A42A49E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3490" yWindow="1800" windowWidth="19200" windowHeight="10510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Day</t>
   </si>
@@ -109,6 +109,9 @@
   </si>
   <si>
     <t>Added a stream builder for displaying groups, added functions for the same in chat repo, added isGroupChat check and modified dependencies (files), modified chat repo to get stream of group chat messages, added a ternary expression determining provider for stream of messages based on isGroupChat in chat list, a LOT of modifications to accomodate sending messages to chat repo (all sub functions modified as well), controller functions modified for isGroupChat functionality and debugged the app.</t>
+  </si>
+  <si>
+    <t>Created callModel, installed agora_uikit, did initial setup, created folder structure for call feature, created makeCall function, modified contact_list, added makeCall in mobileChatScreen, created callPickupScreen. Because of technical difficulties and need of a deployed server which would have made the project too complicated, call feature is scrapped. The guide can be found in ms8_fin.</t>
   </si>
 </sst>
 </file>
@@ -463,8 +466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D26" sqref="A1:D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -825,8 +828,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" s="9"/>
+    <row r="26" spans="1:4" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="9">
+        <v>45207</v>
+      </c>
+      <c r="B26" s="5">
+        <v>55</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" s="5">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
